--- a/Producto/Web/Casos de prueba/Ejecuciones/1.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ejecucion 16-09" sheetId="2" r:id="rId1"/>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,6 +368,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1666,7 +1679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1676,7 +1689,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" thickBot="1">
+    <row r="18" spans="1:10" ht="26.25" thickBot="1">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1686,7 +1699,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="26.25" thickBot="1">
+    <row r="19" spans="1:10" ht="26.25" thickBot="1">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1696,7 +1709,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1706,7 +1719,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1">
+    <row r="21" spans="1:10" ht="26.25" thickBot="1">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1715,8 +1728,13 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="26.25" thickBot="1">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="26.25" thickBot="1">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1725,8 +1743,13 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="26.25" thickBot="1">
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="26.25" thickBot="1">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1735,8 +1758,13 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1745,8 +1773,13 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="26.25" thickBot="1">
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="26.25" thickBot="1">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1759,8 +1792,13 @@
       <c r="D25" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="38.25">
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="38.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1773,6 +1811,32 @@
       <c r="D26" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="F27" s="12"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="F28" s="12"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Producto/Web/Casos de prueba/Ejecuciones/1.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ejecucion 16-09" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
   <si>
     <t>nro</t>
   </si>
@@ -194,8 +194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -331,11 +331,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -383,6 +413,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,6 +440,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -440,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,9 +523,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,6 +558,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,14 +734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -696,7 +749,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -704,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
@@ -712,8 +765,8 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -739,7 +792,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -751,7 +804,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -761,7 +814,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -771,7 +824,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="26.25" thickBot="1">
+    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -781,7 +834,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1">
+    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -791,7 +844,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1">
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -801,7 +854,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -811,7 +864,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -821,7 +874,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -831,7 +884,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25" thickBot="1">
+    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -845,7 +898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -855,7 +908,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" thickBot="1">
+    <row r="18" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -865,7 +918,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="26.25" thickBot="1">
+    <row r="19" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -875,7 +928,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -885,7 +938,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1">
+    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -895,7 +948,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25" thickBot="1">
+    <row r="22" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -905,7 +958,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="26.25" thickBot="1">
+    <row r="23" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -915,7 +968,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -925,7 +978,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25" thickBot="1">
+    <row r="25" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -939,7 +992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="38.25">
+    <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -959,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -974,7 +1027,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -982,16 +1035,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="7">
-        <v>41898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1017,7 +1070,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1029,7 +1082,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1039,7 +1092,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1049,7 +1102,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="26.25" thickBot="1">
+    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1059,7 +1112,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1">
+    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1069,7 +1122,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1">
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1079,7 +1132,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1089,7 +1142,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1099,7 +1152,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1109,7 +1162,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25" thickBot="1">
+    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1123,7 +1176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1133,7 +1186,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" thickBot="1">
+    <row r="18" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1143,7 +1196,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="26.25" thickBot="1">
+    <row r="19" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1153,7 +1206,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1163,7 +1216,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1">
+    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1173,7 +1226,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25" thickBot="1">
+    <row r="22" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1183,7 +1236,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="26.25" thickBot="1">
+    <row r="23" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1193,7 +1246,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1203,7 +1256,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25" thickBot="1">
+    <row r="25" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1217,7 +1270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="38.25">
+    <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1237,14 +1290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -1252,7 +1305,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1260,16 +1313,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="7">
-        <v>41898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1295,7 +1348,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1307,7 +1360,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1317,7 +1370,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1327,7 +1380,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="26.25" thickBot="1">
+    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1337,7 +1390,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1">
+    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1347,7 +1400,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1">
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1357,7 +1410,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1367,7 +1420,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1377,7 +1430,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1387,7 +1440,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25" thickBot="1">
+    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1401,7 +1454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1411,7 +1464,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" thickBot="1">
+    <row r="18" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1421,7 +1474,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="26.25" thickBot="1">
+    <row r="19" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1431,7 +1484,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1441,7 +1494,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1">
+    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1451,7 +1504,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25" thickBot="1">
+    <row r="22" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1461,7 +1514,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="26.25" thickBot="1">
+    <row r="23" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1471,7 +1524,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1481,7 +1534,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25" thickBot="1">
+    <row r="25" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1495,7 +1548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25.5">
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1515,14 +1568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -1530,7 +1583,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1538,16 +1591,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="7">
-        <v>41898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1573,7 +1626,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1585,7 +1638,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1595,7 +1648,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1605,7 +1658,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="26.25" thickBot="1">
+    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1615,7 +1668,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1">
+    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1625,7 +1678,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1">
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1635,7 +1688,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1645,7 +1698,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1655,7 +1708,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1665,7 +1718,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25" thickBot="1">
+    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1679,7 +1732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1689,7 +1742,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="26.25" thickBot="1">
+    <row r="18" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1699,7 +1752,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="26.25" thickBot="1">
+    <row r="19" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1709,7 +1762,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1719,7 +1772,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="26.25" thickBot="1">
+    <row r="21" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1734,7 +1787,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="26.25" thickBot="1">
+    <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1749,7 +1802,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="26.25" thickBot="1">
+    <row r="23" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1764,7 +1817,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1779,7 +1832,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="26.25" thickBot="1">
+    <row r="25" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1798,7 +1851,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="38.25">
+    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1817,21 +1870,21 @@
       <c r="I26" s="16"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F27" s="12"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="12"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -1844,14 +1897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1859,7 +1912,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39" thickBot="1">
+    <row r="2" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1910,14 +1963,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" thickBot="1">
+    <row r="4" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="5">
         <v>41898</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1925,14 +1980,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" thickBot="1">
+    <row r="5" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="5">
         <v>41907</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1940,14 +1997,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" thickBot="1">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="5">
         <v>41927</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1955,34 +2014,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="21">
         <v>41932</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Producto/Web/Casos de prueba/Ejecuciones/1.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -11,14 +11,15 @@
     <sheet name="Ejecucion 25-09" sheetId="6" r:id="rId2"/>
     <sheet name="Ejecucion 15-10" sheetId="7" r:id="rId3"/>
     <sheet name="Ejecucion 20-10" sheetId="8" r:id="rId4"/>
-    <sheet name="Control de cambios" sheetId="4" r:id="rId5"/>
+    <sheet name="Resumen ejecuciones" sheetId="9" r:id="rId5"/>
+    <sheet name="Control de cambios" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="96">
   <si>
     <t>nro</t>
   </si>
@@ -189,13 +190,130 @@
   </si>
   <si>
     <t>5.0</t>
+  </si>
+  <si>
+    <t>Ingresar al menu administracion de playas</t>
+  </si>
+  <si>
+    <t>Precionar el botón "Agregar"</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;Playa1&gt; en el campo Nombre</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;NumeroTelefono1&gt; en el campo telefono</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;email1&gt; en el campo email</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;TipoPlaya1&gt;  en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;TipoVehiculo1&gt; en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;Capacidad1&gt; en el campo capacidad</t>
+  </si>
+  <si>
+    <t>Se crea una fila en la tabla precios con el tipo de vehiculo &lt;TipoVehiculo1&gt; y la capacidad &lt;Capacidad1&gt;</t>
+  </si>
+  <si>
+    <t>Seleccionar horario de atencion &lt;Horario1&gt;</t>
+  </si>
+  <si>
+    <t>Seleccionar los dias de atencion &lt;DiaAtencion1&gt;</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;Precio1&gt; en el tipo de tiempo &lt;Tiempo1&gt; y presionar el boton de confirmacion</t>
+  </si>
+  <si>
+    <t>Seleccionar la pestaña Direccion</t>
+  </si>
+  <si>
+    <t>Se muestran los componentes de direccion de playas de estacionamiento</t>
+  </si>
+  <si>
+    <t>Ingresar la ciudad &lt;Ciudad1&gt; en el campo ciudad, y seleccionar la misma del listado de ciudades</t>
+  </si>
+  <si>
+    <t>Ingresar la calle &lt;Calle1&gt; en el campo calle</t>
+  </si>
+  <si>
+    <t>Ingresar el numero &lt;Numero1&gt; en el campo numero&gt;</t>
+  </si>
+  <si>
+    <t>Presionar el boton "Ubicar"</t>
+  </si>
+  <si>
+    <t>Se muestra en el mapa un marcador en la ubicación ingresada</t>
+  </si>
+  <si>
+    <t>Presionarel boton "Agregar"</t>
+  </si>
+  <si>
+    <t>Se agrega a la tabla de direcciones una nueva fila con los datos de la  direccion ingresada</t>
+  </si>
+  <si>
+    <t>Se muestran multiples marcadores en el mapa q no corresponden</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>nro.</t>
+  </si>
+  <si>
+    <t>Ingresar al menú administración de playas</t>
+  </si>
+  <si>
+    <t>se carga la sección de administrar playas de estacionamiento</t>
+  </si>
+  <si>
+    <t>Presionar el botón "Agregar"</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;NumeroTelefono1&gt; en el campo teléfono</t>
+  </si>
+  <si>
+    <t>Seleccionar los días de atención &lt;DiaAtencion1&gt;</t>
+  </si>
+  <si>
+    <t>Seleccionar horario de atención &lt;Horario1&gt;</t>
+  </si>
+  <si>
+    <t>Se crea una fila en la tabla precios con el tipo de vehículo &lt;TipoVehiculo1&gt; y la capacidad &lt;Capacidad1&gt;</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;Precio1&gt; en el tipo de tiempo &lt;Tiempo1&gt; y presionar el botón de confirmación</t>
+  </si>
+  <si>
+    <t>Seleccionar la pestaña Dirección</t>
+  </si>
+  <si>
+    <t>Se muestran los componentes de dirección de playas de estacionamiento</t>
+  </si>
+  <si>
+    <t>Presionar el botón "Ubicar"</t>
+  </si>
+  <si>
+    <t>Se muestran múltiples marcadores en el mapa q no corresponden</t>
+  </si>
+  <si>
+    <t>Se agrega a la tabla de direcciones una nueva fila con los datos de la  dirección ingresada</t>
+  </si>
+  <si>
+    <t>Presionar el botón Guardar</t>
+  </si>
+  <si>
+    <t>Verificar que &lt;Playa1&gt; existe en la base de datos y los datos ingresados son válidos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +354,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -269,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -361,11 +500,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF548DD4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF538DD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF538DD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -401,9 +664,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -430,6 +690,78 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,21 +1901,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="A4:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
@@ -1599,308 +1931,943 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="24">
+        <v>42018</v>
+      </c>
+      <c r="E4" s="24">
+        <v>42026</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="D21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24">
+        <v>42018</v>
+      </c>
+      <c r="E22" s="24">
+        <v>42026</v>
+      </c>
+      <c r="F22" s="24">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28">
+        <v>42018</v>
+      </c>
+      <c r="E1" s="28">
+        <v>42026</v>
+      </c>
+      <c r="F1" s="28">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>12</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>13</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>16</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>19</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2015,35 +2982,35 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>41932</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
